--- a/ISO9216 to Aspects.xlsx
+++ b/ISO9216 to Aspects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bzm\Documents\Exjobb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoffer\Documents\exjobb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3E4D5D1E-43BE-4E98-A90B-16A6C7376F82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944F562E-8049-42B7-9BF3-B6218582E28E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{6A6867F2-7AE1-4B3F-8C25-B9A774C6C4B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Functionality</t>
   </si>
@@ -93,24 +93,9 @@
     <t>There exists an active online community around the software</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Analyzability</t>
-  </si>
-  <si>
-    <t>Co-existance</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t>U1, U2</t>
   </si>
   <si>
@@ -121,6 +106,45 @@
   </si>
   <si>
     <t>M3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>F1, F2</t>
+  </si>
+  <si>
+    <t>U1, U2, U3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>F1, F2, AC</t>
+  </si>
+  <si>
+    <t>U1, U2, U3, AC</t>
+  </si>
+  <si>
+    <t>M1, AC</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>M1, M2, M4, AC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>P1, P2</t>
   </si>
 </sst>
 </file>
@@ -203,7 +227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6D47EF-24E4-439F-9185-EC0B59C5FD66}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,26 +566,32 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -569,60 +599,102 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -634,7 +706,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -646,7 +718,9 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -655,12 +729,20 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -672,20 +754,22 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -694,7 +778,9 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -704,24 +790,34 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -734,7 +830,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>

--- a/ISO9216 to Aspects.xlsx
+++ b/ISO9216 to Aspects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoffer\Documents\exjobb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944F562E-8049-42B7-9BF3-B6218582E28E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF68AAF1-5775-4750-B971-2FC862A32525}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{6A6867F2-7AE1-4B3F-8C25-B9A774C6C4B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="42">
   <si>
     <t>Functionality</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>P1, P2</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>----------------</t>
   </si>
 </sst>
 </file>
@@ -203,12 +209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,318 +530,781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6D47EF-24E4-439F-9185-EC0B59C5FD66}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
